--- a/productos.xlsx
+++ b/productos.xlsx
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gorra Core Biggie Negro Unitalla</t>
+          <t>Gorra Puma Flatbrim Rojo Unitalla</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Gorra Canelo Velocity Negro Unitalla</t>
+          <t>Gorra Puma 022822 Negro Unitalla</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MXN$849.00</t>
+          <t>MXN$549.00</t>
         </is>
       </c>
     </row>
